--- a/spliced/falling/2023-03-25_18-00-59/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-59/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.266226387023926</v>
+        <v>-2.385556173324585</v>
       </c>
       <c r="B2" t="n">
-        <v>2.866149425506591</v>
+        <v>2.812312602996826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03211449086666163</v>
+        <v>-0.1285117015242577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.475775194168091</v>
+        <v>-2.266226387023926</v>
       </c>
       <c r="B3" t="n">
-        <v>2.822203063964844</v>
+        <v>2.866149425506591</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.136699762195349</v>
+        <v>0.03211449086666163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.403434085845947</v>
+        <v>-2.475775194168091</v>
       </c>
       <c r="B4" t="n">
-        <v>2.584281539916992</v>
+        <v>2.822203063964844</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.100419497489932</v>
+        <v>-0.136699762195349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.276368379592896</v>
+        <v>-2.403434085845947</v>
       </c>
       <c r="B5" t="n">
-        <v>2.15183401107788</v>
+        <v>2.584281539916992</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.987968981266023</v>
+        <v>-1.100419497489932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.559272384643557</v>
+        <v>-2.276368379592896</v>
       </c>
       <c r="B6" t="n">
-        <v>1.362055969238278</v>
+        <v>2.15183401107788</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.492264986038209</v>
+        <v>-1.987968981266023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.275786542892459</v>
+        <v>-2.559272384643557</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1545626640319781</v>
+        <v>1.362055969238278</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.795625829696655</v>
+        <v>-2.492264986038209</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.113391685485841</v>
+        <v>-3.275786542892459</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9623365402221682</v>
+        <v>0.1545626640319781</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.931767368316651</v>
+        <v>-2.795625829696655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.743673324584959</v>
+        <v>-4.113391685485841</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9649306297302217</v>
+        <v>-0.9623365402221682</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.303337550163267</v>
+        <v>-2.931767368316651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.626681327819824</v>
+        <v>-4.743673324584959</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6835670471191406</v>
+        <v>-0.9649306297302217</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.28171181678772</v>
+        <v>-3.303337550163267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.572325563430785</v>
+        <v>-3.626681327819824</v>
       </c>
       <c r="B11" t="n">
-        <v>0.671577787399292</v>
+        <v>0.6835670471191406</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.271707224845887</v>
+        <v>-2.28171181678772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-6.29947957992554</v>
+        <v>-2.572325563430785</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9659337997436523</v>
+        <v>0.671577787399292</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.046118927001951</v>
+        <v>-3.271707224845887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.245738077163745</v>
+        <v>-6.29947957992554</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1863647580146739</v>
+        <v>0.9659337997436523</v>
       </c>
       <c r="C13" t="n">
-        <v>1.624357903003705</v>
+        <v>-1.046118927001951</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1075388908385779</v>
+        <v>1.245738077163745</v>
       </c>
       <c r="B14" t="n">
-        <v>2.011311626434347</v>
+        <v>0.1863647580146739</v>
       </c>
       <c r="C14" t="n">
-        <v>0.675841426849348</v>
+        <v>1.624357903003705</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.805893659591699</v>
+        <v>0.1075388908385779</v>
       </c>
       <c r="B15" t="n">
-        <v>2.456681728363033</v>
+        <v>2.011311626434347</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3629340231418602</v>
+        <v>0.675841426849348</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.720451354980446</v>
+        <v>2.805893659591699</v>
       </c>
       <c r="B16" t="n">
-        <v>1.925141620635989</v>
+        <v>2.456681728363033</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.02809072732925327</v>
+        <v>-0.3629340231418602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.6559253215789739</v>
+        <v>4.720451354980446</v>
       </c>
       <c r="B17" t="n">
-        <v>2.539989399909972</v>
+        <v>1.925141620635989</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1421575546264644</v>
+        <v>-0.02809072732925327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5849607467651348</v>
+        <v>-0.6559253215789739</v>
       </c>
       <c r="B18" t="n">
-        <v>2.491342687606815</v>
+        <v>2.539989399909972</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.09362407922744952</v>
+        <v>0.1421575546264644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.230958747863774</v>
+        <v>0.5849607467651348</v>
       </c>
       <c r="B19" t="n">
-        <v>3.317881345748901</v>
+        <v>2.491342687606815</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5695523142814627</v>
+        <v>-0.09362407922744952</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.351141929626465</v>
+        <v>0.230958747863774</v>
       </c>
       <c r="B20" t="n">
-        <v>3.224694967269897</v>
+        <v>3.317881345748901</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3476141095161438</v>
+        <v>-0.5695523142814627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7057792663574191</v>
+        <v>1.351141929626465</v>
       </c>
       <c r="B21" t="n">
-        <v>3.61713025569916</v>
+        <v>3.224694967269897</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1973931401968027</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.6601259231567385</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.235907554626462</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.04604268670081965</v>
+        <v>-0.3476141095161438</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-00-59/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-59/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.385556173324585</v>
+        <v>-2.143470001220703</v>
       </c>
       <c r="B2" t="n">
-        <v>2.812312602996826</v>
+        <v>2.89409122467041</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1285117015242577</v>
+        <v>0.02666953206062343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.266226387023926</v>
+        <v>-2.163377571105957</v>
       </c>
       <c r="B3" t="n">
-        <v>2.866149425506591</v>
+        <v>2.95642032623291</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03211449086666163</v>
+        <v>0.1989836648106574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.475775194168091</v>
+        <v>-2.130269622802735</v>
       </c>
       <c r="B4" t="n">
-        <v>2.822203063964844</v>
+        <v>2.900108051300049</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.136699762195349</v>
+        <v>0.1112725704908369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.403434085845947</v>
+        <v>-2.321649217605591</v>
       </c>
       <c r="B5" t="n">
-        <v>2.584281539916992</v>
+        <v>2.889909553527832</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.100419497489932</v>
+        <v>-0.01538913398981086</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.276368379592896</v>
+        <v>-2.246681690216064</v>
       </c>
       <c r="B6" t="n">
-        <v>2.15183401107788</v>
+        <v>2.861854076385498</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.987968981266023</v>
+        <v>0.0640860199928283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.559272384643557</v>
+        <v>-2.385556173324585</v>
       </c>
       <c r="B7" t="n">
-        <v>1.362055969238278</v>
+        <v>2.812312602996826</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.492264986038209</v>
+        <v>-0.1285117015242577</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.275786542892459</v>
+        <v>-2.266226387023926</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1545626640319781</v>
+        <v>2.866149425506591</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.795625829696655</v>
+        <v>0.03211449086666163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.113391685485841</v>
+        <v>-2.475775194168091</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9623365402221682</v>
+        <v>2.822203063964844</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.931767368316651</v>
+        <v>-0.136699762195349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.743673324584959</v>
+        <v>-2.403434085845947</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9649306297302217</v>
+        <v>2.584281539916992</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.303337550163267</v>
+        <v>-1.100419497489932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.626681327819824</v>
+        <v>-2.276368379592896</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6835670471191406</v>
+        <v>2.15183401107788</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.28171181678772</v>
+        <v>-1.987968981266023</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.572325563430785</v>
+        <v>-2.559272384643557</v>
       </c>
       <c r="B12" t="n">
-        <v>0.671577787399292</v>
+        <v>1.362055969238278</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.271707224845887</v>
+        <v>-2.492264986038209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-6.29947957992554</v>
+        <v>-3.275786542892459</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9659337997436523</v>
+        <v>0.1545626640319781</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.046118927001951</v>
+        <v>-2.795625829696655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.245738077163745</v>
+        <v>-4.113391685485841</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1863647580146739</v>
+        <v>-0.9623365402221682</v>
       </c>
       <c r="C14" t="n">
-        <v>1.624357903003705</v>
+        <v>-2.931767368316651</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1075388908385779</v>
+        <v>-4.743673324584959</v>
       </c>
       <c r="B15" t="n">
-        <v>2.011311626434347</v>
+        <v>-0.9649306297302217</v>
       </c>
       <c r="C15" t="n">
-        <v>0.675841426849348</v>
+        <v>-3.303337550163267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.805893659591699</v>
+        <v>-3.626681327819824</v>
       </c>
       <c r="B16" t="n">
-        <v>2.456681728363033</v>
+        <v>0.6835670471191406</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3629340231418602</v>
+        <v>-2.28171181678772</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.720451354980446</v>
+        <v>-2.572325563430785</v>
       </c>
       <c r="B17" t="n">
-        <v>1.925141620635989</v>
+        <v>0.671577787399292</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02809072732925327</v>
+        <v>-3.271707224845887</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.6559253215789739</v>
+        <v>-6.29947957992554</v>
       </c>
       <c r="B18" t="n">
-        <v>2.539989399909972</v>
+        <v>0.9659337997436523</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1421575546264644</v>
+        <v>-1.046118927001951</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5849607467651348</v>
+        <v>1.245738077163745</v>
       </c>
       <c r="B19" t="n">
-        <v>2.491342687606815</v>
+        <v>0.1863647580146739</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.09362407922744952</v>
+        <v>1.624357903003705</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.230958747863774</v>
+        <v>0.1075388908385779</v>
       </c>
       <c r="B20" t="n">
-        <v>3.317881345748901</v>
+        <v>2.011311626434347</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5695523142814627</v>
+        <v>0.675841426849348</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.805893659591699</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.456681728363033</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3629340231418602</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.720451354980446</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.925141620635989</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.02809072732925327</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.6559253215789739</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.539989399909972</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1421575546264644</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.5849607467651348</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.491342687606815</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.09362407922744952</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.230958747863774</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.317881345748901</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.5695523142814627</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>1.351141929626465</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>3.224694967269897</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>-0.3476141095161438</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.7057792663574191</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.61713025569916</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1973931401968027</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.6601259231567385</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.235907554626462</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04604268670081965</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.9756811141967799</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.334283685684206</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.05510960519313853</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.6400001525878865</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.297549438476561</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.02418547868728584</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.471990585327149</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.205180048942565</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.01620917022228236</v>
       </c>
     </row>
   </sheetData>
